--- a/results/results_corrs/mega_matrix/071921/mega_matrix_pvals_071921.xlsx
+++ b/results/results_corrs/mega_matrix/071921/mega_matrix_pvals_071921.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhec8\Documents\Northwestern_SROP\AUT-Scoring\results\results_corrs\mega_matrix\071921\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08849CA0-1FB5-4AA9-9FED-13D745D91537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03913F4A-A5A5-4B2A-851B-B78CB2EC9322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23385" yWindow="4620" windowWidth="21480" windowHeight="11490"/>
+    <workbookView xWindow="-22815" yWindow="4005" windowWidth="21480" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mega_matrix_pvals_071921" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,7 +755,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1075,11 +1095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,8 +1898,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C21 B2:B21 D4:D21 F6:F21 E5:E21 G7:G21 H8:H21 I9:I21 J10:J21 L12:L21 K11:K21 M13:M21 N14:N21 O15:O21 P16:P21 Q17:Q21 R18:R21 S19:S21 T20:T21 U21">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B21 C3:C21 D4:D21 E5:E21 F6:F21 G7:G21 H8:H21 I9:I21 J10:J21 K11:K21 L12:L21 M13:M21 N14:N21 O15:O21 P16:P21 Q17:Q21 R18:R21 S19:S21 T20:T21 U21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.05</formula>
+      <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
